--- a/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F409F6-F727-41CB-BC06-802463FD7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BB60B6-FB80-4937-81E7-022C33EB9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E89EA151-D552-4BF6-AF30-5240FF9C32EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74430429-B9EB-42F2-AF18-BC8746962BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="829">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -119,2437 +119,2395 @@
     <t>10,84%</t>
   </si>
   <si>
-    <t>68,11%</t>
+    <t>68,44%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>27,34%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2015 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
   </si>
   <si>
     <t>51,92%</t>
@@ -2979,7 +2937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E435478D-3413-4866-B256-ABFE960F490D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102191AE-DBFB-4892-BBC5-8919E429C084}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5065,13 +5023,13 @@
         <v>4726</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5097,13 @@
         <v>8870</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -5154,13 +5112,13 @@
         <v>8690</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M44" s="7">
         <v>18</v>
@@ -5169,13 +5127,13 @@
         <v>17560</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5148,13 @@
         <v>3826</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -5205,13 +5163,13 @@
         <v>10495</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -5220,13 +5178,13 @@
         <v>14321</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5199,13 @@
         <v>7818</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -5256,13 +5214,13 @@
         <v>4518</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -5271,13 +5229,13 @@
         <v>12336</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5250,13 @@
         <v>12799</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H47" s="7">
         <v>26</v>
@@ -5307,13 +5265,13 @@
         <v>25309</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M47" s="7">
         <v>40</v>
@@ -5322,13 +5280,13 @@
         <v>38107</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5342,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5408,7 +5366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4410C54-A11A-42DF-B3D5-C72B57F6D0A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C891272-1A81-4709-A727-8ED41F03E017}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5425,7 +5383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5759,13 +5717,13 @@
         <v>2107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5774,13 +5732,13 @@
         <v>3119</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5789,13 +5747,13 @@
         <v>5226</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5783,13 @@
         <v>2195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5840,13 +5798,13 @@
         <v>2195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5819,13 @@
         <v>4168</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5876,13 +5834,13 @@
         <v>1994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5891,13 +5849,13 @@
         <v>6162</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5870,13 @@
         <v>3937</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5927,13 +5885,13 @@
         <v>7392</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5942,13 +5900,13 @@
         <v>11330</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6025,13 @@
         <v>2044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6082,13 +6040,13 @@
         <v>2002</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6097,13 +6055,13 @@
         <v>4046</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6091,13 @@
         <v>2032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6148,13 +6106,13 @@
         <v>2032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,10 +6127,10 @@
         <v>3087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -6184,13 +6142,13 @@
         <v>5096</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6199,13 +6157,13 @@
         <v>8183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6231,13 @@
         <v>3181</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6288,13 +6246,13 @@
         <v>4138</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -6303,13 +6261,13 @@
         <v>7319</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6282,13 @@
         <v>3495</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6339,13 +6297,13 @@
         <v>1320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -6354,13 +6312,13 @@
         <v>4815</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6333,13 @@
         <v>5531</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6390,13 +6348,13 @@
         <v>5264</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6405,13 +6363,13 @@
         <v>10794</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6384,13 @@
         <v>4122</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6441,13 +6399,13 @@
         <v>6265</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -6456,13 +6414,13 @@
         <v>10387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6488,13 @@
         <v>1051</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6560,13 +6518,13 @@
         <v>1051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,7 +6545,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6596,13 +6554,13 @@
         <v>2819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6611,13 +6569,13 @@
         <v>2819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6590,13 @@
         <v>2830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6647,13 +6605,13 @@
         <v>973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -6662,13 +6620,13 @@
         <v>3802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6641,13 @@
         <v>3169</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -6698,13 +6656,13 @@
         <v>2052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -6713,13 +6671,13 @@
         <v>5220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6745,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6802,13 +6760,13 @@
         <v>1057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6817,13 +6775,13 @@
         <v>2093</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6811,13 @@
         <v>951</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6874,7 +6832,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6862,13 @@
         <v>1056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6919,13 +6877,13 @@
         <v>1056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,10 +6898,10 @@
         <v>4129</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>18</v>
@@ -6955,13 +6913,13 @@
         <v>1089</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6970,13 +6928,13 @@
         <v>5218</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7002,13 @@
         <v>2053</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7059,13 +7017,13 @@
         <v>7219</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -7074,13 +7032,13 @@
         <v>9272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7053,13 @@
         <v>5477</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7110,13 +7068,13 @@
         <v>1067</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -7125,13 +7083,13 @@
         <v>6544</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7104,13 @@
         <v>2003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7161,13 +7119,13 @@
         <v>4363</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -7176,13 +7134,13 @@
         <v>6365</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,7 +7161,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -7212,13 +7170,13 @@
         <v>2414</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7227,13 +7185,13 @@
         <v>2414</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7259,13 @@
         <v>2029</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7316,13 +7274,13 @@
         <v>6428</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -7331,13 +7289,13 @@
         <v>8457</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7310,13 @@
         <v>1022</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -7367,13 +7325,13 @@
         <v>3342</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -7382,13 +7340,13 @@
         <v>4364</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7376,13 @@
         <v>963</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7433,13 +7391,13 @@
         <v>963</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7412,13 @@
         <v>3312</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -7469,13 +7427,13 @@
         <v>4553</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -7484,13 +7442,13 @@
         <v>7865</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>190</v>
+        <v>369</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7516,13 @@
         <v>11456</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -7573,13 +7531,13 @@
         <v>21962</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M44" s="7">
         <v>31</v>
@@ -7588,13 +7546,13 @@
         <v>33418</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7567,13 @@
         <v>12038</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -7624,13 +7582,13 @@
         <v>13696</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M45" s="7">
         <v>23</v>
@@ -7639,13 +7597,13 @@
         <v>25734</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7618,13 @@
         <v>14531</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H46" s="7">
         <v>16</v>
@@ -7675,13 +7633,13 @@
         <v>16644</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M46" s="7">
         <v>29</v>
@@ -7690,13 +7648,13 @@
         <v>31175</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7669,13 @@
         <v>21756</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H47" s="7">
         <v>26</v>
@@ -7726,13 +7684,13 @@
         <v>28860</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
@@ -7741,13 +7699,13 @@
         <v>50617</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,7 +7761,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +7785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3495F1B-6CC3-4DA6-8B0E-D74A47F690F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D7830-11E0-4321-B139-6B5A8FCB6EB1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7844,7 +7802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7966,13 +7924,13 @@
         <v>2738</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7981,13 +7939,13 @@
         <v>2738</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7960,13 @@
         <v>994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8017,13 +7975,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -8032,13 +7990,13 @@
         <v>2014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8011,7 @@
         <v>2197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -8074,7 +8032,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8083,13 +8041,13 @@
         <v>4063</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8062,13 @@
         <v>1352</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8134,13 +8092,13 @@
         <v>1352</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8166,13 @@
         <v>2248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>287</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8238,13 +8196,13 @@
         <v>2248</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8217,13 @@
         <v>1132</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8274,13 +8232,13 @@
         <v>3590</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -8289,13 +8247,13 @@
         <v>4722</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8268,13 @@
         <v>1079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8325,13 +8283,13 @@
         <v>1637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -8340,13 +8298,13 @@
         <v>2716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8319,13 @@
         <v>2186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8376,13 +8334,13 @@
         <v>2419</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8391,13 +8349,13 @@
         <v>4605</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,13 +8438,13 @@
         <v>2970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8495,13 +8453,13 @@
         <v>2970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,7 +8474,7 @@
         <v>865</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -8531,13 +8489,13 @@
         <v>902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8546,13 +8504,13 @@
         <v>1767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,7 +8546,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8633,13 +8591,13 @@
         <v>3178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -8648,13 +8606,13 @@
         <v>4141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8680,13 @@
         <v>957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -8737,13 +8695,13 @@
         <v>3126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8752,13 +8710,13 @@
         <v>4083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8731,13 @@
         <v>4660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8788,13 +8746,13 @@
         <v>2129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -8803,13 +8761,13 @@
         <v>6789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8782,13 @@
         <v>2730</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -8845,7 +8803,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8854,13 +8812,13 @@
         <v>4223</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8890,13 +8848,13 @@
         <v>4367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -8905,13 +8863,13 @@
         <v>4367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,13 +8937,13 @@
         <v>1935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8994,7 +8952,7 @@
         <v>981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -9009,13 +8967,13 @@
         <v>2916</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,7 +9024,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9039,13 @@
         <v>888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9111,13 +9069,13 @@
         <v>888</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9090,13 @@
         <v>1951</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -9147,7 +9105,7 @@
         <v>975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
@@ -9162,13 +9120,13 @@
         <v>2926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9251,13 +9209,13 @@
         <v>1002</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -9266,13 +9224,13 @@
         <v>1002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>516</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9287,13 +9245,13 @@
         <v>1847</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>518</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -9302,13 +9260,13 @@
         <v>1036</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -9317,13 +9275,13 @@
         <v>2884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,13 +9296,13 @@
         <v>1035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9359,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9368,13 +9326,13 @@
         <v>1035</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9347,13 @@
         <v>1777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -9404,10 +9362,10 @@
         <v>5960</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -9419,13 +9377,13 @@
         <v>7738</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9493,13 +9451,13 @@
         <v>4130</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9508,13 +9466,13 @@
         <v>2958</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -9523,13 +9481,13 @@
         <v>7088</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9550,7 +9508,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -9559,13 +9517,13 @@
         <v>4104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9574,13 +9532,13 @@
         <v>4104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>548</v>
+        <v>114</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9595,13 +9553,13 @@
         <v>3698</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9610,13 +9568,13 @@
         <v>2812</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>338</v>
+        <v>545</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9625,13 +9583,13 @@
         <v>6511</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,13 +9604,13 @@
         <v>1047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -9661,13 +9619,13 @@
         <v>1106</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -9682,7 +9640,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9750,13 +9708,13 @@
         <v>1871</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>563</v>
+        <v>378</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -9765,13 +9723,13 @@
         <v>2244</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -9780,13 +9738,13 @@
         <v>4115</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9801,13 +9759,13 @@
         <v>2436</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -9816,13 +9774,13 @@
         <v>3392</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -9831,13 +9789,13 @@
         <v>5828</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9852,13 +9810,13 @@
         <v>5178</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9873,7 +9831,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9882,13 +9840,13 @@
         <v>5178</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,13 +9861,13 @@
         <v>2118</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -9918,13 +9876,13 @@
         <v>2244</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -9933,13 +9891,13 @@
         <v>4362</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10007,13 +9965,13 @@
         <v>11143</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="H44" s="7">
         <v>16</v>
@@ -10022,13 +9980,13 @@
         <v>16019</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="M44" s="7">
         <v>26</v>
@@ -10037,13 +9995,13 @@
         <v>27161</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,13 +10016,13 @@
         <v>11935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
@@ -10073,13 +10031,13 @@
         <v>16173</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="M45" s="7">
         <v>25</v>
@@ -10088,13 +10046,13 @@
         <v>28108</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10109,13 +10067,13 @@
         <v>16806</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -10124,13 +10082,13 @@
         <v>7808</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="M46" s="7">
         <v>23</v>
@@ -10139,13 +10097,13 @@
         <v>24614</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10160,13 +10118,13 @@
         <v>11394</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -10175,13 +10133,13 @@
         <v>20249</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="M47" s="7">
         <v>28</v>
@@ -10190,13 +10148,13 @@
         <v>31644</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>619</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>620</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10252,7 +10210,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -10276,7 +10234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7E901C-8782-4833-9990-882810DD6EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694594FC-CC22-4D86-9698-96091007470B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10293,7 +10251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10400,7 +10358,7 @@
         <v>1196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -10415,13 +10373,13 @@
         <v>471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -10436,7 +10394,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10451,7 +10409,7 @@
         <v>907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -10481,13 +10439,13 @@
         <v>907</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10517,13 +10475,13 @@
         <v>968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -10532,13 +10490,13 @@
         <v>968</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10568,10 +10526,10 @@
         <v>1159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -10583,13 +10541,13 @@
         <v>1160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10657,13 +10615,13 @@
         <v>2507</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -10678,7 +10636,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -10687,13 +10645,13 @@
         <v>3422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10714,7 +10672,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -10723,13 +10681,13 @@
         <v>537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -10738,13 +10696,13 @@
         <v>536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10759,13 +10717,13 @@
         <v>3237</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -10777,10 +10735,10 @@
         <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -10789,13 +10747,13 @@
         <v>5091</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10810,13 +10768,13 @@
         <v>8677</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -10825,13 +10783,13 @@
         <v>3132</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -10840,13 +10798,13 @@
         <v>11809</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10914,13 +10872,13 @@
         <v>1685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>661</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -10929,13 +10887,13 @@
         <v>1052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -10944,13 +10902,13 @@
         <v>2737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10965,13 +10923,13 @@
         <v>2278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -10980,13 +10938,13 @@
         <v>1094</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>670</v>
+        <v>562</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -10995,13 +10953,13 @@
         <v>3372</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>673</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11016,13 +10974,13 @@
         <v>1852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>661</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -11031,13 +10989,13 @@
         <v>1236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -11049,10 +11007,10 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11067,13 +11025,13 @@
         <v>2437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -11082,13 +11040,13 @@
         <v>2511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>680</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -11097,13 +11055,13 @@
         <v>4948</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>683</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11171,13 +11129,13 @@
         <v>3984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -11186,13 +11144,13 @@
         <v>1592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -11201,13 +11159,13 @@
         <v>5576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11222,13 +11180,13 @@
         <v>1076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -11237,13 +11195,13 @@
         <v>1613</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -11252,13 +11210,13 @@
         <v>2689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11273,13 +11231,13 @@
         <v>1813</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -11288,13 +11246,13 @@
         <v>590</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -11303,13 +11261,13 @@
         <v>2403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11324,13 +11282,13 @@
         <v>2173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -11339,13 +11297,13 @@
         <v>2967</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -11354,13 +11312,13 @@
         <v>5140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11428,13 +11386,13 @@
         <v>628</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -11443,7 +11401,7 @@
         <v>397</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -11458,13 +11416,13 @@
         <v>1025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11479,13 +11437,13 @@
         <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -11494,7 +11452,7 @@
         <v>392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -11509,13 +11467,13 @@
         <v>1065</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11530,7 +11488,7 @@
         <v>510</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -11560,13 +11518,13 @@
         <v>510</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11581,13 +11539,13 @@
         <v>712</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -11596,7 +11554,7 @@
         <v>451</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
@@ -11611,13 +11569,13 @@
         <v>1163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11685,13 +11643,13 @@
         <v>3435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -11700,13 +11658,13 @@
         <v>355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -11715,13 +11673,13 @@
         <v>3790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11736,13 +11694,13 @@
         <v>1066</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -11751,13 +11709,13 @@
         <v>2365</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -11766,13 +11724,13 @@
         <v>3431</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>749</v>
+        <v>596</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>732</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11787,13 +11745,13 @@
         <v>955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>329</v>
+        <v>734</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>751</v>
+        <v>105</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11817,13 +11775,13 @@
         <v>955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11838,13 +11796,13 @@
         <v>978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -11853,13 +11811,13 @@
         <v>799</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -11868,13 +11826,13 @@
         <v>1778</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11942,13 +11900,13 @@
         <v>1127</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -11957,13 +11915,13 @@
         <v>3985</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>762</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -11972,13 +11930,13 @@
         <v>5113</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11993,13 +11951,13 @@
         <v>879</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -12008,13 +11966,13 @@
         <v>3285</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -12023,13 +11981,13 @@
         <v>4164</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12044,13 +12002,13 @@
         <v>3180</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -12059,13 +12017,13 @@
         <v>988</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -12074,13 +12032,13 @@
         <v>4168</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12095,13 +12053,13 @@
         <v>3047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -12110,13 +12068,13 @@
         <v>7449</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>390</v>
+        <v>768</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -12125,13 +12083,13 @@
         <v>10496</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12199,13 +12157,13 @@
         <v>716</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -12220,7 +12178,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -12229,13 +12187,13 @@
         <v>716</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12250,13 +12208,13 @@
         <v>1488</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -12265,13 +12223,13 @@
         <v>1189</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -12280,13 +12238,13 @@
         <v>2677</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>82</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12301,13 +12259,13 @@
         <v>1173</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -12316,13 +12274,13 @@
         <v>822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -12331,13 +12289,13 @@
         <v>1995</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12352,13 +12310,13 @@
         <v>5071</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -12367,13 +12325,13 @@
         <v>3067</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>594</v>
+        <v>794</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="M42" s="7">
         <v>11</v>
@@ -12382,13 +12340,13 @@
         <v>8138</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12456,13 +12414,13 @@
         <v>15279</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -12471,13 +12429,13 @@
         <v>8767</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="M44" s="7">
         <v>37</v>
@@ -12486,13 +12444,13 @@
         <v>24046</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12507,13 +12465,13 @@
         <v>8366</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="H45" s="7">
         <v>19</v>
@@ -12522,13 +12480,13 @@
         <v>10475</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="M45" s="7">
         <v>31</v>
@@ -12537,13 +12495,13 @@
         <v>18841</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12558,13 +12516,13 @@
         <v>12719</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -12573,10 +12531,10 @@
         <v>6458</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>73</v>
@@ -12588,13 +12546,13 @@
         <v>19178</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>136</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12609,13 +12567,13 @@
         <v>23097</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>407</v>
+        <v>822</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="H47" s="7">
         <v>33</v>
@@ -12624,13 +12582,13 @@
         <v>21535</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="M47" s="7">
         <v>58</v>
@@ -12639,13 +12597,13 @@
         <v>44633</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12701,7 +12659,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5C1A5F-1B6E-4534-8B62-FD2473C9C915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23765376-43F0-4751-B5DA-2487A6344631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F45AEF3-671A-472F-B0E5-6D69DF1A6928}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3178257-D971-43F7-B23B-870C2FBA3518}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="837">
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="867">
+  <si>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Cuarto Cuartil</t>
+    <t>más de 7</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,10 +86,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>Tercer Cuartil</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-4</t>
   </si>
   <si>
     <t>33,79%</t>
@@ -98,7 +98,7 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>Primer Cuartil</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>66,21%</t>
@@ -611,7 +611,100 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>20,63%</t>
@@ -755,1801 +848,1798 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>19,48%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +3051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7C17DC-40B0-4D23-A1AE-A42624D515CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EB111-C027-454D-9C53-29BA12A1CD6F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5390,7 +5480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4A892F-D2B5-429E-BC05-8815A27A27BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED509ED0-6417-4BFC-8A91-517515D5042E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5508,43 +5598,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2320</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2024</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4344</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,43 +5649,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2432</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1320</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3752</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,43 +5700,49 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3688</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2080</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5768</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,43 +5751,49 @@
         <v>19</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3105</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4040</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7145</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,43 +5802,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11545</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9464</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N8" s="7">
+        <v>21009</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5861,13 @@
         <v>2107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5756,13 +5876,13 @@
         <v>3119</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5771,13 +5891,13 @@
         <v>5226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5927,13 @@
         <v>2195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5822,13 +5942,13 @@
         <v>2195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5963,13 @@
         <v>4168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5858,13 +5978,13 @@
         <v>1994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5873,13 +5993,13 @@
         <v>6162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +6014,13 @@
         <v>3937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5909,13 +6029,13 @@
         <v>7392</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5924,13 +6044,13 @@
         <v>11330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6169,7 @@
         <v>2044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -6064,7 +6184,7 @@
         <v>2002</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
@@ -6079,13 +6199,13 @@
         <v>4046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6235,13 @@
         <v>2032</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6130,13 +6250,13 @@
         <v>2032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,10 +6271,10 @@
         <v>3087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -6166,13 +6286,13 @@
         <v>5096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6181,13 +6301,13 @@
         <v>8183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,49 +6369,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>861</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2114</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>3181</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4138</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
       <c r="N19" s="7">
-        <v>7319</v>
+        <v>2976</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,49 +6420,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>3495</v>
+        <v>1062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
-        <v>1320</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
       <c r="N20" s="7">
-        <v>4815</v>
+        <v>1063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,49 +6471,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3183</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M21" s="7">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
-        <v>5531</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5264</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" s="7">
-        <v>10</v>
-      </c>
       <c r="N21" s="7">
-        <v>10794</v>
+        <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,49 +6522,49 @@
         <v>19</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>4122</v>
+        <v>1016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>6265</v>
+        <v>2225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>10387</v>
+        <v>3241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,10 +6573,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>16328</v>
+        <v>4782</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -6468,10 +6588,10 @@
         <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>16987</v>
+        <v>7523</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>21</v>
@@ -6483,10 +6603,10 @@
         <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N23" s="7">
-        <v>33315</v>
+        <v>12306</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>21</v>
@@ -6512,13 +6632,13 @@
         <v>1051</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6542,13 +6662,13 @@
         <v>1051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6578,7 +6698,7 @@
         <v>2819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -6593,13 +6713,13 @@
         <v>2819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6734,13 @@
         <v>2830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6629,13 +6749,13 @@
         <v>973</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -6644,13 +6764,13 @@
         <v>3802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6785,13 @@
         <v>3169</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -6680,13 +6800,13 @@
         <v>2052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -6695,13 +6815,13 @@
         <v>5220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6889,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6784,13 +6904,13 @@
         <v>1057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6799,13 +6919,13 @@
         <v>2093</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6955,7 @@
         <v>951</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
@@ -6856,7 +6976,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +7006,13 @@
         <v>1056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6901,13 +7021,13 @@
         <v>1056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,10 +7042,10 @@
         <v>4129</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>18</v>
@@ -6937,13 +7057,13 @@
         <v>1089</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6952,13 +7072,13 @@
         <v>5218</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7146,13 @@
         <v>2053</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7041,13 +7161,13 @@
         <v>7219</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -7056,13 +7176,13 @@
         <v>9272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7197,13 @@
         <v>5477</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7092,13 +7212,13 @@
         <v>1067</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -7107,13 +7227,13 @@
         <v>6544</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7248,13 @@
         <v>2003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7143,13 +7263,13 @@
         <v>4363</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -7158,13 +7278,13 @@
         <v>6365</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,7 +7305,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -7194,13 +7314,13 @@
         <v>2414</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7209,13 +7329,13 @@
         <v>2414</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7403,13 @@
         <v>2029</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7298,13 +7418,13 @@
         <v>6428</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -7313,13 +7433,13 @@
         <v>8457</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7454,13 @@
         <v>1022</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -7349,13 +7469,13 @@
         <v>3342</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -7364,13 +7484,13 @@
         <v>4364</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7520,13 @@
         <v>963</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7415,13 +7535,13 @@
         <v>963</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7556,13 @@
         <v>3312</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -7451,13 +7571,13 @@
         <v>4553</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -7466,13 +7586,13 @@
         <v>7865</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7660,13 @@
         <v>11456</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -7555,13 +7675,13 @@
         <v>21962</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="M44" s="7">
         <v>31</v>
@@ -7570,13 +7690,13 @@
         <v>33418</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7711,13 @@
         <v>12038</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -7606,28 +7726,28 @@
         <v>13696</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="M45" s="7">
         <v>23</v>
       </c>
       <c r="N45" s="7">
-        <v>25734</v>
+        <v>25733</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7762,13 @@
         <v>14531</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="H46" s="7">
         <v>16</v>
@@ -7657,13 +7777,13 @@
         <v>16644</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="M46" s="7">
         <v>29</v>
@@ -7672,13 +7792,13 @@
         <v>31175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7813,13 @@
         <v>21756</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="H47" s="7">
         <v>26</v>
@@ -7708,28 +7828,28 @@
         <v>28860</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="M47" s="7">
         <v>46</v>
       </c>
       <c r="N47" s="7">
-        <v>50617</v>
+        <v>50616</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,7 +7891,7 @@
         <v>129</v>
       </c>
       <c r="N48" s="7">
-        <v>140944</v>
+        <v>140943</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>21</v>
@@ -7809,7 +7929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F00A79-84AF-47D0-8EB3-9AF80F527698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2DA5EC-5642-4FCD-B504-94E68BDC7460}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7826,7 +7946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7948,13 +8068,13 @@
         <v>2738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7963,13 +8083,13 @@
         <v>2738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +8104,13 @@
         <v>994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7999,13 +8119,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -8014,13 +8134,13 @@
         <v>2014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,7 +8155,7 @@
         <v>2197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -8056,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8065,13 +8185,13 @@
         <v>4063</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8206,13 @@
         <v>1352</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8116,13 +8236,13 @@
         <v>1352</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8310,13 @@
         <v>2248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8220,13 +8340,13 @@
         <v>2248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8361,13 @@
         <v>1132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -8256,13 +8376,13 @@
         <v>3590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -8271,13 +8391,13 @@
         <v>4722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8412,13 @@
         <v>1079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8313,7 +8433,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -8322,13 +8442,13 @@
         <v>2716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8463,13 @@
         <v>2186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8358,13 +8478,13 @@
         <v>2419</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8373,13 +8493,13 @@
         <v>4605</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,13 +8582,13 @@
         <v>2970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8477,13 +8597,13 @@
         <v>2970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,7 +8618,7 @@
         <v>865</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -8513,13 +8633,13 @@
         <v>902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8528,13 +8648,13 @@
         <v>1767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8615,13 +8735,13 @@
         <v>3178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -8630,13 +8750,13 @@
         <v>4141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8704,13 +8824,13 @@
         <v>957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -8719,13 +8839,13 @@
         <v>3126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8734,13 +8854,13 @@
         <v>4083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,13 +8875,13 @@
         <v>4660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8770,13 +8890,13 @@
         <v>2129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -8785,13 +8905,13 @@
         <v>6789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8926,13 @@
         <v>2730</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -8827,7 +8947,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8836,13 +8956,13 @@
         <v>4223</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,7 +8983,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8872,13 +8992,13 @@
         <v>4367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -8887,13 +9007,13 @@
         <v>4367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8961,13 +9081,13 @@
         <v>1935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8991,13 +9111,13 @@
         <v>2916</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9048,7 +9168,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,13 +9183,13 @@
         <v>888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9093,13 +9213,13 @@
         <v>888</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9114,13 +9234,13 @@
         <v>1951</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -9129,7 +9249,7 @@
         <v>975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
@@ -9144,13 +9264,13 @@
         <v>2926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,13 +9353,13 @@
         <v>1002</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -9248,13 +9368,13 @@
         <v>1002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9269,13 +9389,13 @@
         <v>1847</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -9284,13 +9404,13 @@
         <v>1036</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -9299,13 +9419,13 @@
         <v>2884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,13 +9440,13 @@
         <v>1035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>519</v>
+        <v>276</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9341,7 +9461,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9350,13 +9470,13 @@
         <v>1035</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,13 +9491,13 @@
         <v>1777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -9386,10 +9506,10 @@
         <v>5960</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -9401,13 +9521,13 @@
         <v>7738</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,13 +9595,13 @@
         <v>4130</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9490,13 +9610,13 @@
         <v>2958</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -9505,13 +9625,13 @@
         <v>7088</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9532,7 +9652,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -9541,13 +9661,13 @@
         <v>4104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>167</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9556,13 +9676,13 @@
         <v>4104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>541</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,13 +9697,13 @@
         <v>3698</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9592,13 +9712,13 @@
         <v>2812</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9607,13 +9727,13 @@
         <v>6511</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,13 +9748,13 @@
         <v>1047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -9643,13 +9763,13 @@
         <v>1106</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -9658,13 +9778,13 @@
         <v>2153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9852,13 @@
         <v>1871</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -9747,13 +9867,13 @@
         <v>2244</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -9762,13 +9882,13 @@
         <v>4115</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9903,13 @@
         <v>2436</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -9798,13 +9918,13 @@
         <v>3392</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -9813,13 +9933,13 @@
         <v>5828</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,13 +9954,13 @@
         <v>5178</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9855,7 +9975,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9864,13 +9984,13 @@
         <v>5178</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9885,13 +10005,13 @@
         <v>2118</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -9900,13 +10020,13 @@
         <v>2244</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -9915,13 +10035,13 @@
         <v>4362</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9989,13 +10109,13 @@
         <v>11143</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="H44" s="7">
         <v>16</v>
@@ -10004,13 +10124,13 @@
         <v>16019</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="M44" s="7">
         <v>26</v>
@@ -10019,13 +10139,13 @@
         <v>27161</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10040,13 +10160,13 @@
         <v>11935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
@@ -10055,13 +10175,13 @@
         <v>16173</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="M45" s="7">
         <v>25</v>
@@ -10070,13 +10190,13 @@
         <v>28108</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10091,13 +10211,13 @@
         <v>16806</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -10106,13 +10226,13 @@
         <v>7808</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>604</v>
+        <v>213</v>
       </c>
       <c r="M46" s="7">
         <v>23</v>
@@ -10121,13 +10241,13 @@
         <v>24614</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10142,13 +10262,13 @@
         <v>11394</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>519</v>
+        <v>276</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -10157,13 +10277,13 @@
         <v>20249</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="M47" s="7">
         <v>28</v>
@@ -10172,13 +10292,13 @@
         <v>31644</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10258,7 +10378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C46EA-0D0F-4B85-A3D9-7C2CDF972404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDC5493-3885-46DA-AD47-4C7DBA5B9949}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10275,7 +10395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10379,10 +10499,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1196</v>
+        <v>1387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -10394,31 +10514,31 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>639</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1667</v>
+        <v>1877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>641</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10430,10 +10550,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>907</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -10460,16 +10580,16 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>907</v>
+        <v>1085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>620</v>
+        <v>37</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10496,31 +10616,31 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10547,31 +10667,31 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>630</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10583,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2103</v>
+        <v>2472</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -10598,7 +10718,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>2598</v>
+        <v>2683</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
@@ -10613,7 +10733,7 @@
         <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>4702</v>
+        <v>5154</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
@@ -10636,46 +10756,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2507</v>
+        <v>2392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>655</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>3422</v>
+        <v>3309</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10696,37 +10816,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10738,46 +10858,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>491</v>
+        <v>615</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1855</v>
+        <v>1751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>645</v>
+        <v>541</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>5091</v>
+        <v>4990</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10789,46 +10909,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>8677</v>
+        <v>8280</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>671</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>3132</v>
+        <v>2929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>676</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>11809</v>
+        <v>11210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>653</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10840,7 +10960,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>14421</v>
+        <v>13911</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
@@ -10855,7 +10975,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6439</v>
+        <v>6090</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>21</v>
@@ -10870,7 +10990,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>20859</v>
+        <v>20002</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>21</v>
@@ -10893,46 +11013,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1685</v>
+        <v>1608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1052</v>
+        <v>986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2737</v>
+        <v>2594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10944,46 +11064,46 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2278</v>
+        <v>2167</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1094</v>
+        <v>1042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>3372</v>
+        <v>3209</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10995,46 +11115,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>694</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1236</v>
+        <v>1142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>696</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3088</v>
+        <v>2978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>27</v>
+        <v>698</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11046,46 +11166,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2437</v>
+        <v>2291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2511</v>
+        <v>2325</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>678</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>4948</v>
+        <v>4617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11097,7 +11217,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>8252</v>
+        <v>7903</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -11112,7 +11232,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>5893</v>
+        <v>5495</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -11127,7 +11247,7 @@
         <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>14145</v>
+        <v>13398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -11150,46 +11270,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3984</v>
+        <v>3830</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1592</v>
+        <v>1488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>5576</v>
+        <v>5318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11201,46 +11321,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1613</v>
+        <v>1496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2689</v>
+        <v>2530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>597</v>
+        <v>721</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11252,46 +11372,46 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>1813</v>
+        <v>1736</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>701</v>
+        <v>232</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>2403</v>
+        <v>2299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>703</v>
+        <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11303,46 +11423,46 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2173</v>
+        <v>2063</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2967</v>
+        <v>2847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>5140</v>
+        <v>4911</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>736</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11354,7 +11474,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>9047</v>
+        <v>8663</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -11369,7 +11489,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>6762</v>
+        <v>6394</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>21</v>
@@ -11384,7 +11504,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="7">
-        <v>15808</v>
+        <v>15058</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>21</v>
@@ -11407,25 +11527,25 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -11437,16 +11557,16 @@
         <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>1025</v>
+        <v>929</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11458,25 +11578,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>672</v>
+        <v>611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -11488,16 +11608,16 @@
         <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>1065</v>
+        <v>969</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11509,10 +11629,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -11539,16 +11659,16 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11560,25 +11680,25 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>712</v>
+        <v>639</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
@@ -11590,16 +11710,16 @@
         <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>1163</v>
+        <v>1051</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11611,7 +11731,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>2523</v>
+        <v>2283</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>21</v>
@@ -11626,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>21</v>
@@ -11641,7 +11761,7 @@
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>3763</v>
+        <v>3413</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>21</v>
@@ -11664,46 +11784,46 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>3435</v>
+        <v>3325</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>3790</v>
+        <v>3656</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11715,46 +11835,46 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>2365</v>
+        <v>2213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>434</v>
+        <v>766</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>3431</v>
+        <v>3244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11766,16 +11886,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>324</v>
+        <v>771</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11796,16 +11916,16 @@
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>575</v>
+        <v>773</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11817,46 +11937,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>978</v>
+        <v>946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>799</v>
+        <v>740</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>1778</v>
+        <v>1686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11868,7 +11988,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="7">
-        <v>6435</v>
+        <v>6220</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -11883,7 +12003,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="7">
-        <v>3519</v>
+        <v>3284</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>21</v>
@@ -11898,7 +12018,7 @@
         <v>18</v>
       </c>
       <c r="N33" s="7">
-        <v>9954</v>
+        <v>9504</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>21</v>
@@ -11921,46 +12041,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
       </c>
       <c r="I34" s="7">
-        <v>3985</v>
+        <v>3717</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
       </c>
       <c r="N34" s="7">
-        <v>5113</v>
+        <v>4812</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11972,46 +12092,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>3285</v>
+        <v>3075</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>4164</v>
+        <v>3910</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>631</v>
+        <v>795</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12023,46 +12143,46 @@
         <v>4</v>
       </c>
       <c r="D36" s="7">
-        <v>3180</v>
+        <v>2990</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>385</v>
+        <v>799</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>988</v>
+        <v>924</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>4168</v>
+        <v>3914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12074,46 +12194,46 @@
         <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>3047</v>
+        <v>2959</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>7449</v>
+        <v>6865</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>776</v>
+        <v>361</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
       </c>
       <c r="N37" s="7">
-        <v>10496</v>
+        <v>9824</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12125,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="7">
-        <v>8234</v>
+        <v>7879</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
@@ -12140,7 +12260,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="7">
-        <v>15707</v>
+        <v>14581</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>21</v>
@@ -12155,7 +12275,7 @@
         <v>36</v>
       </c>
       <c r="N38" s="7">
-        <v>23941</v>
+        <v>22460</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>21</v>
@@ -12178,16 +12298,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -12202,22 +12322,22 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12229,46 +12349,46 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>1488</v>
+        <v>1297</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>1189</v>
+        <v>1011</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>2677</v>
+        <v>2308</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>790</v>
+        <v>635</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>248</v>
+        <v>821</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12280,46 +12400,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1173</v>
+        <v>1007</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>822</v>
+        <v>693</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1995</v>
+        <v>1700</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>203</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12331,46 +12451,46 @@
         <v>7</v>
       </c>
       <c r="D42" s="7">
-        <v>5071</v>
+        <v>4463</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
       </c>
       <c r="I42" s="7">
-        <v>3067</v>
+        <v>2618</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>801</v>
+        <v>657</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="M42" s="7">
         <v>11</v>
       </c>
       <c r="N42" s="7">
-        <v>8138</v>
+        <v>7082</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>230</v>
+        <v>834</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12382,7 +12502,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="7">
-        <v>8448</v>
+        <v>7400</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>21</v>
@@ -12397,7 +12517,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="7">
-        <v>5078</v>
+        <v>4322</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>21</v>
@@ -12412,7 +12532,7 @@
         <v>18</v>
       </c>
       <c r="N43" s="7">
-        <v>13526</v>
+        <v>11722</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>21</v>
@@ -12435,46 +12555,46 @@
         <v>20</v>
       </c>
       <c r="D44" s="7">
-        <v>15279</v>
+        <v>14839</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
       </c>
       <c r="I44" s="7">
-        <v>8767</v>
+        <v>8289</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>106</v>
+        <v>841</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>809</v>
+        <v>428</v>
       </c>
       <c r="M44" s="7">
         <v>37</v>
       </c>
       <c r="N44" s="7">
-        <v>24046</v>
+        <v>23127</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>812</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12486,46 +12606,46 @@
         <v>12</v>
       </c>
       <c r="D45" s="7">
-        <v>8366</v>
+        <v>8060</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>813</v>
+        <v>118</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="H45" s="7">
         <v>19</v>
       </c>
       <c r="I45" s="7">
-        <v>10475</v>
+        <v>9688</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="M45" s="7">
         <v>31</v>
       </c>
       <c r="N45" s="7">
-        <v>18841</v>
+        <v>17748</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>820</v>
+        <v>135</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12537,46 +12657,46 @@
         <v>15</v>
       </c>
       <c r="D46" s="7">
-        <v>12719</v>
+        <v>12190</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
       </c>
       <c r="I46" s="7">
-        <v>6458</v>
+        <v>6089</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
       <c r="M46" s="7">
         <v>26</v>
       </c>
       <c r="N46" s="7">
-        <v>19178</v>
+        <v>18279</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>828</v>
+        <v>173</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12588,46 +12708,46 @@
         <v>25</v>
       </c>
       <c r="D47" s="7">
-        <v>23097</v>
+        <v>21643</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>663</v>
+        <v>859</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>831</v>
+        <v>860</v>
       </c>
       <c r="H47" s="7">
         <v>33</v>
       </c>
       <c r="I47" s="7">
-        <v>21535</v>
+        <v>19913</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
       <c r="M47" s="7">
         <v>58</v>
       </c>
       <c r="N47" s="7">
-        <v>44633</v>
+        <v>41556</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>599</v>
+        <v>865</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12639,7 +12759,7 @@
         <v>72</v>
       </c>
       <c r="D48" s="7">
-        <v>59462</v>
+        <v>56732</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>21</v>
@@ -12654,7 +12774,7 @@
         <v>80</v>
       </c>
       <c r="I48" s="7">
-        <v>47235</v>
+        <v>43979</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>21</v>
@@ -12669,7 +12789,7 @@
         <v>152</v>
       </c>
       <c r="N48" s="7">
-        <v>106698</v>
+        <v>100710</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>21</v>
